--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_DeepAR_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_DeepAR_Lineal_Estacionario_ARMA.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.5450687955171307</v>
+        <v>0.5829956567556286</v>
       </c>
       <c r="D2">
-        <v>0.5857785963772906</v>
+        <v>0.565824936022151</v>
       </c>
       <c r="E2">
         <v>0.5630582095328995</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.007315212627634048</v>
+        <v>0.007261972822570133</v>
       </c>
       <c r="D3">
-        <v>0.9941642258725076</v>
+        <v>0.9942712849491435</v>
       </c>
       <c r="E3">
         <v>0.5630582095328995</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.9728971323840702</v>
+        <v>0.9236304513466169</v>
       </c>
       <c r="D4">
-        <v>0.3307445688705464</v>
+        <v>0.3656988547037152</v>
       </c>
       <c r="E4">
         <v>0.5630582095328995</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-0.1372654169060994</v>
+        <v>-0.1557742007531301</v>
       </c>
       <c r="D5">
-        <v>0.8908374628027902</v>
+        <v>0.8776315125607972</v>
       </c>
       <c r="E5">
         <v>0.5630582095328995</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.3988246486459192</v>
+        <v>-0.3225531089082612</v>
       </c>
       <c r="D6">
-        <v>0.6900731292802145</v>
+        <v>0.7500790726291151</v>
       </c>
       <c r="E6">
         <v>0.5538636385238523</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.3693177912146957</v>
+        <v>0.3231987371382763</v>
       </c>
       <c r="D7">
-        <v>0.7119374358708885</v>
+        <v>0.7495967044289018</v>
       </c>
       <c r="E7">
         <v>0.5538636385238523</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-0.694597882016213</v>
+        <v>-0.5649576966487505</v>
       </c>
       <c r="D8">
-        <v>0.4874034419972788</v>
+        <v>0.5778186555861351</v>
       </c>
       <c r="E8">
         <v>0.5538636385238523</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.7224411415983888</v>
+        <v>0.6901467025507328</v>
       </c>
       <c r="D9">
-        <v>0.470123909850078</v>
+        <v>0.4973186532259661</v>
       </c>
       <c r="E9">
         <v>0.5628911550517028</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.102729854493869</v>
+        <v>-0.08135500577877723</v>
       </c>
       <c r="D10">
-        <v>0.9181896461740882</v>
+        <v>0.935895236898034</v>
       </c>
       <c r="E10">
         <v>0.5628911550517028</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-1.106562159674426</v>
+        <v>-0.9538440776757816</v>
       </c>
       <c r="D11">
-        <v>0.2686417911411128</v>
+        <v>0.350526343944447</v>
       </c>
       <c r="E11">
         <v>0.5470735488324752</v>
